--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -6046,14 +6046,14 @@
         <v>35</v>
       </c>
       <c r="D15" s="94">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" s="95">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F15" s="96">
         <f>E15*D15</f>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="G15" t="s" s="91">
         <v>36</v>
@@ -6066,12 +6066,14 @@
         <v>37</v>
       </c>
       <c r="D16" s="100">
-        <v>4</v>
-      </c>
-      <c r="E16" s="101"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="101">
+        <v>147</v>
+      </c>
       <c r="F16" s="102">
         <f>E16*D16</f>
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="G16" t="s" s="103">
         <v>36</v>
@@ -6108,12 +6110,12 @@
         <v>10</v>
       </c>
       <c r="E18" s="108">
-        <f>90/0.75</f>
-        <v>120</v>
+        <f>117/0.9</f>
+        <v>130</v>
       </c>
       <c r="F18" s="109">
         <f>D18*E18</f>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G18" t="s" s="91">
         <v>34</v>
